--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-1.219663657569512</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.41855619231934</v>
+        <v>-10.37418637798873</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.186787056240793</v>
+        <v>-3.196462268040828</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.540868027707948</v>
+        <v>-7.439455049895938</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.173728667008612</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.97136558750838</v>
+        <v>-10.92949640302054</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.278171330076041</v>
+        <v>-3.292441940173522</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.413689397903421</v>
+        <v>-7.318482171638388</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.181812156828842</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.12432296160826</v>
+        <v>-11.08420814570122</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.173445999645074</v>
+        <v>-3.19063619327626</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.029796893978329</v>
+        <v>-6.937142666767434</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.252300717176048</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.5831558069994</v>
+        <v>-11.54357777550886</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.317264946361435</v>
+        <v>-3.333721971033484</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.73103054313014</v>
+        <v>-6.639345146329532</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.378300914013125</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.99361259339035</v>
+        <v>-11.96003083660132</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.388604904546</v>
+        <v>-3.409199096916035</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.449231816764828</v>
+        <v>-6.355621851446487</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.549058698596121</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.53301547046946</v>
+        <v>-12.50228783569993</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.266087134553127</v>
+        <v>-3.287781080361868</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.127697951274878</v>
+        <v>-6.038159692140313</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.742820849763247</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.10763664219282</v>
+        <v>-13.07688282281761</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.245794065148452</v>
+        <v>-3.274112716195106</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.959776075026899</v>
+        <v>-5.871782707627658</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.930859396584923</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.52226987319029</v>
+        <v>-13.49404286826353</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.364423421197332</v>
+        <v>-3.391720872622331</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.806713962504279</v>
+        <v>-5.723302901099643</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.080594505452083</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.21597863156198</v>
+        <v>-14.17883576840001</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.236171222559783</v>
+        <v>-3.266008580736077</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.765525577764209</v>
+        <v>-5.685387592070004</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.163492248302933</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.65752963720204</v>
+        <v>-14.62201021959243</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.316217562134097</v>
+        <v>-3.34817587337075</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.781236341174281</v>
+        <v>-5.696385126457054</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.162255516509519</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.22314330457029</v>
+        <v>-15.18465193421561</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.352470148702836</v>
+        <v>-3.385096167384417</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.510055472413609</v>
+        <v>-5.431907516751346</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.070469903343168</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.30329438256733</v>
+        <v>-15.26467208918424</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.459093863045853</v>
+        <v>-3.485867622357183</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.06156554626744</v>
+        <v>-4.982893898491509</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.893371126209584</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.00044641658641</v>
+        <v>-15.95743820175134</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.144433456547809</v>
+        <v>-3.17622156784752</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.699694295722132</v>
+        <v>-4.620132371352963</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.641031250186601</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.59926216396127</v>
+        <v>-16.5551541956875</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.084588540258279</v>
+        <v>-3.114949590548242</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.644850639118141</v>
+        <v>-4.569844836137893</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.327636340243335</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.37033333982473</v>
+        <v>-17.3238556647366</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.878869185706237</v>
+        <v>-2.915540725965912</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.405706635411173</v>
+        <v>-4.328304941010889</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.9712670360745381</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.87780409027287</v>
+        <v>-17.83314624527975</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.752044048078437</v>
+        <v>-2.786267327706709</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.17759944299978</v>
+        <v>-4.093769427904208</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.5886309945719281</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.30427276303926</v>
+        <v>-18.25640730384991</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.833713833205124</v>
+        <v>-2.869599835294295</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.090745105947769</v>
+        <v>-4.007032921577773</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.1981732325329028</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.88723373167279</v>
+        <v>-18.83356838232456</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.609364131709306</v>
+        <v>-2.648405378783333</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.731937454267424</v>
+        <v>-3.644742717341529</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1806248354867026</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.20895088940253</v>
+        <v>-19.15476184794062</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.368779974689748</v>
+        <v>-2.405071838167013</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.370851741892619</v>
+        <v>-3.275998007804314</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5284008685983935</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.9089570454411</v>
+        <v>-19.84878482158052</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.127855417796305</v>
+        <v>-2.164749527204289</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.34415653639834</v>
+        <v>-3.243293435305682</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8228887361654811</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.48162746404104</v>
+        <v>-20.41540659626759</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.921939678701637</v>
+        <v>-1.96284003277919</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.319176422576327</v>
+        <v>-3.219373798013849</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.042323957633669</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.68576264994923</v>
+        <v>-20.61464526091297</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.788502928138765</v>
+        <v>-1.831733712122145</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.159568158632844</v>
+        <v>-3.05235529066195</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.167623006438557</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.22663186494662</v>
+        <v>-21.15036920089356</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.59891329068773</v>
+        <v>-1.636632215174743</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.303465659166255</v>
+        <v>-3.197404913845432</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.185227785535315</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.39670087886064</v>
+        <v>-21.3185922001069</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.409690237716263</v>
+        <v>-1.447579362140218</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.305966289009025</v>
+        <v>-3.205967279903921</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.09071282160394</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.50399230064858</v>
+        <v>-21.42851517476603</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.426500754565039</v>
+        <v>-1.462426033562736</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.506723660784052</v>
+        <v>-3.410403588777474</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8908740137544953</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.58491582451329</v>
+        <v>-21.50795926840963</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.242134945947853</v>
+        <v>-1.287591421414326</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.730431839440626</v>
+        <v>-3.640029488318508</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6025194346930852</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.50015625591596</v>
+        <v>-21.4294447282678</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.202164145372063</v>
+        <v>-1.241742176862601</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.760452489856704</v>
+        <v>-3.671987799555161</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2511484543244905</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.56509407801092</v>
+        <v>-21.48936819837438</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.047007264394767</v>
+        <v>-1.087174449513183</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.073738204556367</v>
+        <v>-3.983479868765508</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.1321987566768765</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.60488158634692</v>
+        <v>-21.52941755276722</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.141468229397821</v>
+        <v>-1.180103615083755</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.259963120177078</v>
+        <v>-4.168565754038989</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.5166414622415985</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.44728953704107</v>
+        <v>-21.37079121153686</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.211171649727171</v>
+        <v>-1.247751543866953</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.302761858166681</v>
+        <v>-4.212176214804778</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.8744185770372269</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.32022873796212</v>
+        <v>-21.25039439460435</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.301194324066879</v>
+        <v>-1.336753018585007</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.606254530340733</v>
+        <v>-4.522319776822427</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.184701005786786</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.28353101309676</v>
+        <v>-21.20936311749838</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.372076051651984</v>
+        <v>-1.408145345980939</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.514778610385592</v>
+        <v>-4.428618165384194</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.437665366123003</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.89188786588937</v>
+        <v>-20.81672495527502</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.525845148528057</v>
+        <v>-1.558012936610178</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.44360885213797</v>
+        <v>-4.360381082973118</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.628375136984399</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.62797322520585</v>
+        <v>-20.55373986809326</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.551100200709746</v>
+        <v>-1.58533657264086</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.414845062794698</v>
+        <v>-4.32740157211481</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.757858690956094</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.39239032787183</v>
+        <v>-20.3188639551127</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.728173596644091</v>
+        <v>-1.761257845925133</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.298690151982904</v>
+        <v>-4.215724228874886</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.833241464445832</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.10407163469134</v>
+        <v>-20.03273167650677</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.735308901692832</v>
+        <v>-1.768196766431248</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.13914734955363</v>
+        <v>-4.04873190612867</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.863084937691083</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.78400410711966</v>
+        <v>-19.7136067947397</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.806845244420023</v>
+        <v>-1.837913279063439</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.75822679837361</v>
+        <v>-3.675994044224729</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.860779916065374</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.65936538406643</v>
+        <v>-19.58687330323179</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.749226019613587</v>
+        <v>-1.777806516717075</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.423299507076574</v>
+        <v>-3.340333583968556</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.83874755933672</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.27771166392727</v>
+        <v>-19.21111111937141</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.872241297114445</v>
+        <v>-1.910156606144084</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.564434531710381</v>
+        <v>-3.488093313840277</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.808180483334845</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.89408100605902</v>
+        <v>-18.83236389046312</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.723984059734739</v>
+        <v>-1.764242890973047</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.165027648917844</v>
+        <v>-3.084627817166804</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.782761822682332</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.33789379673681</v>
+        <v>-18.27993417205649</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.834037957422288</v>
+        <v>-1.872215112508762</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.074599113190042</v>
+        <v>-2.990337052100693</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.773213948854762</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98902320291334</v>
+        <v>-17.9320324086433</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.124307403726197</v>
+        <v>-2.157849883606699</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.987901883772132</v>
+        <v>-2.902893561420805</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.789405035243457</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.80438245593647</v>
+        <v>-17.74783679996306</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.240920545137451</v>
+        <v>-2.273022871705364</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.793651386509442</v>
+        <v>-2.714312031288582</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.837461169432668</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.61968933974824</v>
+        <v>-17.57071103481735</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.1671061417158</v>
+        <v>-2.193762070301554</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.748194911042969</v>
+        <v>-2.665687218534412</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.92015823554869</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.18905731467819</v>
+        <v>-17.14467440804474</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.286429389815291</v>
+        <v>-2.313700656634606</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.557911381541323</v>
+        <v>-2.473898074205966</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.039618441234724</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.24428064806459</v>
+        <v>-17.20908853802603</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.18531753496864</v>
+        <v>-2.216804523302992</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.444322562086507</v>
+        <v>-2.35719328667482</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.191187467608622</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.11894803296074</v>
+        <v>-17.08253833875791</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.326347821179714</v>
+        <v>-2.354339164655324</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.221020244818027</v>
+        <v>-2.136705814517311</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.366873410512299</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.66745996946382</v>
+        <v>-16.62826161475569</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.348382166862339</v>
+        <v>-2.378573017215359</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.185330627271482</v>
+        <v>-2.09664336782163</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.55725963415738</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.3738912628438</v>
+        <v>-16.3431112588629</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.532839621599417</v>
+        <v>-2.563606533277473</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.000100726666742</v>
+        <v>-1.91232992841581</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.750623167951626</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.91607961707432</v>
+        <v>-15.88789188905609</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.644412226416607</v>
+        <v>-2.672338108378009</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.900075532955955</v>
+        <v>-1.814124564800023</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.941187897034014</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.75071073988048</v>
+        <v>-15.72451304189419</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.546940031759956</v>
+        <v>-2.577274897444235</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.843817907645058</v>
+        <v>-1.762161214821212</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.127135390413025</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.2878454652141</v>
+        <v>-15.26425313549331</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.439242748583918</v>
+        <v>-2.464759646822442</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.857852856291388</v>
+        <v>-1.778565870281895</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.308879533073273</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.94629346867915</v>
+        <v>-14.92672047593077</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.646651010202542</v>
+        <v>-2.672259554560958</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.0569736902112</v>
+        <v>-1.975605028049872</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.494530463485606</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.566210824881</v>
+        <v>-14.54545952487686</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.658813759542506</v>
+        <v>-2.687839394942612</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.089887739555299</v>
+        <v>-2.008715461936597</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.690568698785469</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.65769983713898</v>
+        <v>-14.63663432186664</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.505345785631793</v>
+        <v>-2.530653207024849</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.979493441993865</v>
+        <v>-1.895885996046602</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.904767531437825</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.51479735162154</v>
+        <v>-14.49204292928262</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.655802529888908</v>
+        <v>-2.681843120241102</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.15906746777098</v>
+        <v>-2.07942698958476</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.146388706045871</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.42474849267615</v>
+        <v>-14.40766303746769</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.521986102543627</v>
+        <v>-2.547005493274165</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.500187418312152</v>
+        <v>-2.42249769324935</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.418176975057811</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.08421769576285</v>
+        <v>-14.06944957815739</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.5179929501769</v>
+        <v>-2.54044624955046</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.746990419181531</v>
+        <v>-2.658892313359556</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.723993425796049</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.77415268756225</v>
+        <v>-13.7565959094515</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.568620885265855</v>
+        <v>-2.592501245649163</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.910827496942891</v>
+        <v>-2.827220050995628</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.061249363864996</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.79493017217207</v>
+        <v>-13.77602488686862</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.426582491735969</v>
+        <v>-2.452845651236471</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.073198236785977</v>
+        <v>-2.99107022105983</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.419964060103526</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.61865540671107</v>
+        <v>-13.59341344683223</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.406132314697192</v>
+        <v>-2.433403581516508</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.246566511016114</v>
+        <v>-3.164412310684283</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.789963008262094</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.5323771309841</v>
+        <v>-13.50282780347032</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.488181776606289</v>
+        <v>-2.520284103174202</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.235503515114855</v>
+        <v>-3.155548821660434</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.151565045681647</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.31957484059468</v>
+        <v>-13.28874246740242</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.368622867055647</v>
+        <v>-2.39648328750284</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.320380914437766</v>
+        <v>-3.240530959406078</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.485602555445722</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.22191935369825</v>
+        <v>-13.18617736694034</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.343747491656368</v>
+        <v>-2.373768142072445</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.583758770704769</v>
+        <v>-3.505322784379988</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.773769957761746</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.15000333418865</v>
+        <v>-13.11563603922912</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.402505746810034</v>
+        <v>-2.432919166311364</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.533431958581174</v>
+        <v>-3.458151217241249</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.997624217320472</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.23270741123983</v>
+        <v>-13.19182014946512</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.529776022734453</v>
+        <v>-2.55956101169938</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.484191807593442</v>
+        <v>-3.40627951338233</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.145277522173767</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.30123252431343</v>
+        <v>-13.25637829477767</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.575009929052617</v>
+        <v>-2.609298670195098</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.586887831083941</v>
+        <v>-3.512824673908297</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.206057847834783</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.11754751544401</v>
+        <v>-13.06973442546602</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.376294956520899</v>
+        <v>-2.410125467063919</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.421453492375891</v>
+        <v>-3.34719395065762</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.176695492229082</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.25640447938335</v>
+        <v>-13.20704649767005</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.642330550264772</v>
+        <v>-2.674799461312253</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.376350509086144</v>
+        <v>-3.298988091594385</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.061831453251577</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.16203516050019</v>
+        <v>-13.11521708553818</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.685810088002145</v>
+        <v>-2.716537722771676</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.215760322429532</v>
+        <v>-3.142613626452809</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.867787735518601</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.29086342046278</v>
+        <v>-13.24260519218818</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.748718603156638</v>
+        <v>-2.779367684109119</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.249054048556042</v>
+        <v>-3.16772466330324</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.606855050385538</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.43425032118536</v>
+        <v>-13.38207749436108</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.744830189212646</v>
+        <v>-2.78006157615973</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.146593686516693</v>
+        <v>-3.064007440191086</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.288506198841094</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.67038309523873</v>
+        <v>-13.61813171459741</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.800760506952499</v>
+        <v>-2.83861035446793</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.205168649430576</v>
+        <v>-3.126418447837594</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.924910859504453</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.89153827484117</v>
+        <v>-13.85134490511707</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.879628539271057</v>
+        <v>-2.916836863947243</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.065290485869575</v>
+        <v>-2.982966085600801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.528008771365193</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.0395205738612</v>
+        <v>-13.99304289877307</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.032913220941986</v>
+        <v>-3.071574791233603</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.717611291604697</v>
+        <v>-2.628766924520744</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.103860724921715</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.51755982752114</v>
+        <v>-14.47430285893208</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.155797575414427</v>
+        <v>-3.195807652898742</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.453408620258665</v>
+        <v>-2.362508761628561</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.66309535086421</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.29799199991643</v>
+        <v>-15.25308540116931</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.373784417729166</v>
+        <v>-3.41022029653769</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.30242818388788</v>
+        <v>-2.211816355920294</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.211251318440704</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.7100853241626</v>
+        <v>-15.66788883210372</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.285254265913415</v>
+        <v>-3.326652127498952</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.30060835379288</v>
+        <v>-2.201656728915115</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.752432663490219</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.13889751913766</v>
+        <v>-16.10577399294809</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.495673757185636</v>
+        <v>-3.537241818708116</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.129217017291844</v>
+        <v>-2.027516008817316</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.292470291258229</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.77280063812835</v>
+        <v>-16.7405935731377</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.645986486111493</v>
+        <v>-3.687070132428829</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.851463812504626</v>
+        <v>-1.750522157594918</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.830175365073989</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46734730388192</v>
+        <v>-17.43724809964879</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.898877407802273</v>
+        <v>-3.940235992479286</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.871992543360452</v>
+        <v>-1.767385043655061</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.371559617501017</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.30524159344954</v>
+        <v>-18.27596720429545</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.138885503496796</v>
+        <v>-4.17934071927773</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.959841895428434</v>
+        <v>-1.848360936731137</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.922881658144202</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.08281964382534</v>
+        <v>-19.05364999309397</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.364282589219952</v>
+        <v>-4.407107511815238</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.731224103206213</v>
+        <v>-1.617897129808233</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.490762620586885</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.97947218854663</v>
+        <v>-19.95442661321041</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.526103452343686</v>
+        <v>-4.570041220680519</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.749121281190853</v>
+        <v>-1.634760015868376</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.089576204762611</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.18684435661061</v>
+        <v>-21.1691435631686</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.742139541535008</v>
+        <v>-4.788001878389574</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.719427938345818</v>
+        <v>-1.601610305073125</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.7314223890478089</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.27519439954046</v>
+        <v>-22.25742814458424</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.794220722239394</v>
+        <v>-4.838629813478529</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.964594401359981</v>
+        <v>-1.847392106320849</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4294368678225181</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66757389906087</v>
+        <v>-23.65461251924756</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.829255724643853</v>
+        <v>-4.874411077144966</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.978956657577354</v>
+        <v>-1.855326041842935</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1967047259989015</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.02286290463067</v>
+        <v>-25.01278183144254</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.091625473592043</v>
+        <v>-5.135890549499919</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.105389026119903</v>
+        <v>-1.983316394423649</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04039249407087699</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.56686436336111</v>
+        <v>-26.55725461307528</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.19103532906927</v>
+        <v>-5.234894543589052</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.314695671650577</v>
+        <v>-2.188066918565403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03225896159748388</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.10164884089097</v>
+        <v>-28.09317812095237</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.434931838707785</v>
+        <v>-5.483844682124473</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.567782977883984</v>
+        <v>-2.447556360888413</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0175922122551718</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.81135957668914</v>
+        <v>-29.79782213555079</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.582324984099936</v>
+        <v>-5.630347550923387</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.814402686513578</v>
+        <v>-2.689017702198368</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08246611147596922</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.5332461541301</v>
+        <v>-31.52057280497931</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.740637110062088</v>
+        <v>-5.787651569566727</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.246854541678632</v>
+        <v>-3.122058710991299</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.261348838133657</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.18544240354457</v>
+        <v>-33.1696399940146</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.70272180103245</v>
+        <v>-5.745219416056692</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.650123653809478</v>
+        <v>-3.529032944826354</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.5074516983020645</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.18188766387937</v>
+        <v>-35.16410831662031</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.917095167762872</v>
+        <v>-5.959553505878589</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.849270672334973</v>
+        <v>-3.723794041899871</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.8040944639679024</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.01715358392969</v>
+        <v>-36.99329940815207</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.249940782908074</v>
+        <v>-6.290526921717425</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.430045226393942</v>
+        <v>-4.309177086559127</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.130925557634008</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.11176493097177</v>
+        <v>-39.0883689857936</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.23587964965606</v>
+        <v>-6.276780003733612</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.766150824946734</v>
+        <v>-4.643279562777134</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.470278739865559</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.37226884732134</v>
+        <v>-41.34477501135372</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.450986185345619</v>
+        <v>-6.489320448066193</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.279892788456064</v>
+        <v>-5.159247217769559</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.796746204087689</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3155462658159</v>
+        <v>-43.28693958410673</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.560398560193924</v>
+        <v>-6.599557637993527</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.537667139106809</v>
+        <v>-5.421577689809224</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.096743731954952</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.42427111532135</v>
+        <v>-45.39165818894261</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.684592144950537</v>
+        <v>-6.719247470572586</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.629653658872776</v>
+        <v>-5.514493763076953</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.343490401125659</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.59369188080105</v>
+        <v>-47.5611706005422</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.829916706493697</v>
+        <v>-6.863459186374199</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.099562592468009</v>
+        <v>-5.986968788029164</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.537786946221198</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.74919552835998</v>
+        <v>-49.71040303503995</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.249354812634075</v>
+        <v>-7.285738322231232</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.532027539935903</v>
+        <v>-6.421292842500585</v>
       </c>
     </row>
   </sheetData>
